--- a/aggregated_round_win_percentages.xlsx
+++ b/aggregated_round_win_percentages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_FFC65FC0574168F598170BD9C3BE0D9676D62D31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DA93D8-C2A8-47A5-BC0F-793DC6EA2891}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="11_FFC65FC0574168F598170BD9C3BE0D9676D62D31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9521B324-6E70-46F4-B542-06C51B282A53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,6 +333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,7 +629,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1542,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -1712,7 +1716,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>

--- a/aggregated_round_win_percentages.xlsx
+++ b/aggregated_round_win_percentages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="11_FFC65FC0574168F598170BD9C3BE0D9676D62D31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9521B324-6E70-46F4-B542-06C51B282A53}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_FFC65FC0574168F598170BD9C3BE0D9676D62D31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C4D682-6F4F-42CC-8D84-5EEEB85D3FC1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>Alabama St.</t>
   </si>
   <si>
-    <t>American</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>Seed</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's</t>
   </si>
 </sst>
 </file>
@@ -628,12 +628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
@@ -643,28 +644,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -675,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2">
         <v>0.99029999999999996</v>
@@ -704,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>0.98980000000000001</v>
@@ -733,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>0.98950000000000005</v>
@@ -762,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>0.97509999999999997</v>
@@ -791,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2">
         <v>0.98180000000000001</v>
@@ -820,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2">
         <v>0.97960000000000003</v>
@@ -849,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2">
         <v>0.98899999999999999</v>
@@ -878,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2">
         <v>0.8952</v>
@@ -907,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2">
         <v>0.96730000000000005</v>
@@ -936,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2">
         <v>0.96540000000000004</v>
@@ -965,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2">
         <v>0.92169999999999996</v>
@@ -994,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>0.92110000000000003</v>
@@ -1023,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2">
         <v>0.96760000000000002</v>
@@ -1052,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2">
         <v>0.88070000000000004</v>
@@ -1081,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2">
         <v>0.77700000000000002</v>
@@ -1110,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2">
         <v>0.77200000000000002</v>
@@ -1139,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2">
         <v>0.77100000000000002</v>
@@ -1168,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2">
         <v>0.68920000000000003</v>
@@ -1197,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2">
         <v>0.66479999999999995</v>
@@ -1226,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2">
         <v>0.64790000000000003</v>
@@ -1255,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2">
         <v>0.63980000000000004</v>
@@ -1284,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2">
         <v>0.62480000000000002</v>
@@ -1313,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2">
         <v>0.62219999999999998</v>
@@ -1342,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2">
         <v>0.61839999999999995</v>
@@ -1371,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2">
         <v>0.61460000000000004</v>
@@ -1400,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2">
         <v>0.60709999999999997</v>
@@ -1429,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2">
         <v>0.57620000000000005</v>
@@ -1458,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2">
         <v>0.56259999999999999</v>
@@ -1487,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2">
         <v>0.55310000000000004</v>
@@ -1516,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2">
         <v>0.4778</v>
@@ -1545,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2">
         <v>0.5232</v>
@@ -1574,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2">
         <v>0.5222</v>
@@ -1603,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2">
         <v>0.45219999999999999</v>
@@ -1632,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2">
         <v>0.4768</v>
@@ -1661,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2">
         <v>0.36020000000000002</v>
@@ -1690,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2">
         <v>0.44690000000000002</v>
@@ -1719,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2">
         <v>0.43740000000000001</v>
@@ -1748,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2">
         <v>0.42380000000000001</v>
@@ -1777,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2">
         <v>0.39290000000000003</v>
@@ -1806,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2">
         <v>0.38540000000000002</v>
@@ -1835,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2">
         <v>0.54779999999999995</v>
@@ -1864,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2">
         <v>0.37780000000000002</v>
@@ -1893,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2">
         <v>0.37519999999999998</v>
@@ -1922,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2">
         <v>0.38159999999999999</v>
@@ -1951,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2">
         <v>0.35210000000000002</v>
@@ -1980,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2">
         <v>0.3352</v>
@@ -2009,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2">
         <v>0.31080000000000002</v>
@@ -2038,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="2">
         <v>0.22900000000000001</v>
@@ -2067,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2">
         <v>0.22800000000000001</v>
@@ -2096,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2">
         <v>0.223</v>
@@ -2125,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2">
         <v>0.1193</v>
@@ -2154,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2">
         <v>0.1048</v>
@@ -2183,7 +2184,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2">
         <v>7.8899999999999998E-2</v>
@@ -2212,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2">
         <v>7.8299999999999995E-2</v>
@@ -2241,7 +2242,7 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2">
         <v>3.4599999999999999E-2</v>
@@ -2270,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2">
         <v>3.27E-2</v>
@@ -2299,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2">
         <v>3.2399999999999998E-2</v>
@@ -2328,7 +2329,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2">
         <v>2.4899999999999999E-2</v>
@@ -2357,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="2">
         <v>2.0400000000000001E-2</v>
@@ -2386,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2">
         <v>1.8200000000000001E-2</v>
@@ -2415,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2">
         <v>1.0999999999999999E-2</v>
@@ -2444,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2">
         <v>1.0500000000000001E-2</v>
@@ -2473,7 +2474,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2">
         <v>1.0200000000000001E-2</v>
@@ -2496,13 +2497,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2">
         <v>9.7000000000000003E-3</v>

--- a/aggregated_round_win_percentages.xlsx
+++ b/aggregated_round_win_percentages.xlsx
@@ -5,33 +5,42 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM2025/aggarchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F9C0446A-85BA-47A5-ABAE-2203AE723965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A458E83-3BC3-4A69-B2D1-ED07885FBAD6}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_70EE737DAF6285E513C069E3DCB3E071451BAE2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691DD251-1CD2-418A-9649-44BDE2298717}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Round 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Team</t>
   </si>
   <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Auburn</t>
+    <t>Tennessee</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -40,70 +49,31 @@
     <t>Michigan St.</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Elite 8</t>
+    <t>Title Game</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>West</t>
   </si>
   <si>
     <t>Final 4</t>
-  </si>
-  <si>
-    <t>Title Game</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Champion</t>
   </si>
 </sst>
 </file>
@@ -162,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -183,10 +154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,176 +443,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.86050000000000004</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.65969999999999995</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.35449999999999998</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.21049999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.1978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.47260000000000002</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.27539999999999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.15809999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.15909999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.6673</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.4168</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.25769999999999998</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.13650000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3427</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.19819999999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.1124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.14879999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.62339999999999995</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.17960000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8.6499999999999994E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.34670000000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.1898</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.2147</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -653,234 +603,42 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.63919999999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.34279999999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6.93E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.2100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.67830000000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.1575</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.3327</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.16739999999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8.2600000000000007E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.37659999999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.16350000000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.77E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.27239999999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.32169999999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.13950000000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.4E-3</v>
+      <c r="D9" s="3">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.4700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G17" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
-      <sortCondition descending="1" ref="G2:G17"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
+    <sortCondition descending="1" ref="F2:F9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>